--- a/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C7F7C6-B21D-4BA9-AB0C-2E6901B36B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A236A8-CE90-4B98-85F5-C555D6F8847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4710C1BC-8466-4584-82AC-B5AA243CB800}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53FCCAAF-8DC3-4A47-A4FD-FB53DDA414D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,16 +74,16 @@
     <t>85,87%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>64,46%</t>
+    <t>68,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>14,13%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>8,02%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,54%</t>
+    <t>31,35%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,49 @@
     <t>91,85%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>42,37%</t>
+    <t>35,65%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -188,55 +188,55 @@
     <t>62,39%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,55 +245,55 @@
     <t>64,32%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +302,55 @@
     <t>60,44%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +359,109 @@
     <t>76,14%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121F147F-6588-42AB-9735-FFEE9047F13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A33BAB-5088-4039-AC8C-D0ABDC14A316}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A236A8-CE90-4B98-85F5-C555D6F8847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE0912E-46C6-4A8A-8445-64678D3DCD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53FCCAAF-8DC3-4A47-A4FD-FB53DDA414D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EE506D8-D431-4764-8432-DD503C1AAC69}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A33BAB-5088-4039-AC8C-D0ABDC14A316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780E06A-7AA0-4096-8D6B-C4B467903482}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE0912E-46C6-4A8A-8445-64678D3DCD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75380D9-E9A4-4084-B22E-08A16A31C2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EE506D8-D431-4764-8432-DD503C1AAC69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74D9F8AD-F943-477B-809D-E7570D2B6881}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
-    <t>Población según si ha trabajado anteriormente en 2023 (Tasa respuesta: 13,57%)</t>
+    <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,334 +134,334 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780E06A-7AA0-4096-8D6B-C4B467903482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F1C7C-76D6-4885-AC32-47B08308F910}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>47250</v>
+        <v>91060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>39939</v>
+        <v>73178</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1024,10 +1024,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>87189</v>
+        <v>164238</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1045,10 +1045,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>7773</v>
+        <v>185445</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1060,10 +1060,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>3485</v>
+        <v>182054</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1075,10 +1075,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>11258</v>
+        <v>367499</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1096,10 +1096,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>55023</v>
+        <v>276505</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1111,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I6" s="7">
-        <v>43424</v>
+        <v>255232</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1126,10 +1126,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="N6" s="7">
-        <v>98447</v>
+        <v>531737</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1149,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>18174</v>
+        <v>67580</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1161,37 +1161,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>32845</v>
+        <v>133900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="N7" s="7">
-        <v>51019</v>
+        <v>201480</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1200,49 +1200,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>1612</v>
+        <v>11509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>6147</v>
+        <v>46737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
         <v>44</v>
       </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
       <c r="N8" s="7">
-        <v>7759</v>
+        <v>58246</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1251,10 +1251,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>19786</v>
+        <v>79089</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1266,10 +1266,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I9" s="7">
-        <v>38992</v>
+        <v>180637</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1281,10 +1281,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="N9" s="7">
-        <v>58778</v>
+        <v>259726</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1298,55 +1298,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>5671</v>
+        <v>74835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="I10" s="7">
-        <v>22546</v>
+        <v>170904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="N10" s="7">
-        <v>28217</v>
+        <v>245739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,49 +1355,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>3420</v>
+        <v>5566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>1806</v>
+        <v>35374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="7">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
       <c r="N11" s="7">
-        <v>5226</v>
+        <v>40940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>9091</v>
+        <v>80401</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="I12" s="7">
-        <v>24352</v>
+        <v>206278</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1436,10 +1436,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>33443</v>
+        <v>286679</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1453,55 +1453,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>14092</v>
+        <v>131952</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>30280</v>
+        <v>206622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>458</v>
       </c>
       <c r="N13" s="7">
-        <v>44371</v>
+        <v>338574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,49 +1510,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>7816</v>
+        <v>11300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I14" s="7">
-        <v>11082</v>
+        <v>79853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="N14" s="7">
-        <v>18898</v>
+        <v>91152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,10 +1561,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7">
-        <v>21908</v>
+        <v>143252</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1576,10 +1576,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="I15" s="7">
-        <v>41362</v>
+        <v>286475</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1591,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>581</v>
       </c>
       <c r="N15" s="7">
-        <v>63269</v>
+        <v>429726</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,55 +1608,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>5074</v>
+        <v>275369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>185</v>
+        <v>518</v>
       </c>
       <c r="I16" s="7">
-        <v>110591</v>
+        <v>308320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>191</v>
+        <v>818</v>
       </c>
       <c r="N16" s="7">
-        <v>115665</v>
+        <v>583688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,49 +1665,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>3320</v>
+        <v>4625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>8873</v>
+        <v>68518</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>12193</v>
+        <v>73144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>8394</v>
+        <v>279994</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1731,10 +1731,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>198</v>
+        <v>626</v>
       </c>
       <c r="I18" s="7">
-        <v>119464</v>
+        <v>376838</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1746,10 +1746,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>208</v>
+        <v>932</v>
       </c>
       <c r="N18" s="7">
-        <v>127858</v>
+        <v>656832</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1763,55 +1763,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>992</v>
       </c>
       <c r="D19" s="7">
-        <v>7121</v>
+        <v>673548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>638</v>
+        <v>1485</v>
       </c>
       <c r="I19" s="7">
-        <v>455476</v>
+        <v>896667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>650</v>
+        <v>2477</v>
       </c>
       <c r="N19" s="7">
-        <v>462597</v>
+        <v>1570214</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,28 +1820,28 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>2231</v>
+        <v>3922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="I20" s="7">
-        <v>67861</v>
+        <v>108995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>119</v>
@@ -1850,10 +1850,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="N20" s="7">
-        <v>70092</v>
+        <v>112918</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1871,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>15</v>
+        <v>998</v>
       </c>
       <c r="D21" s="7">
-        <v>9352</v>
+        <v>677470</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1886,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>752</v>
+        <v>1668</v>
       </c>
       <c r="I21" s="7">
-        <v>523337</v>
+        <v>1005662</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1901,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>767</v>
+        <v>2666</v>
       </c>
       <c r="N21" s="7">
-        <v>532689</v>
+        <v>1683132</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>65</v>
+        <v>1582</v>
       </c>
       <c r="D22" s="7">
-        <v>97383</v>
+        <v>1314344</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>124</v>
@@ -1939,10 +1939,10 @@
         <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>948</v>
+        <v>2749</v>
       </c>
       <c r="I22" s="7">
-        <v>691676</v>
+        <v>1789590</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>127</v>
@@ -1954,10 +1954,10 @@
         <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>1013</v>
+        <v>4331</v>
       </c>
       <c r="N22" s="7">
-        <v>789059</v>
+        <v>3103934</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>130</v>
@@ -1975,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>26172</v>
+        <v>222367</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>133</v>
@@ -1990,10 +1990,10 @@
         <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="I23" s="7">
-        <v>99254</v>
+        <v>521531</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>136</v>
@@ -2005,10 +2005,10 @@
         <v>138</v>
       </c>
       <c r="M23" s="7">
-        <v>173</v>
+        <v>707</v>
       </c>
       <c r="N23" s="7">
-        <v>125426</v>
+        <v>743898</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -2026,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>87</v>
+        <v>1693</v>
       </c>
       <c r="D24" s="7">
-        <v>123555</v>
+        <v>1536711</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2041,10 +2041,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>1099</v>
+        <v>3345</v>
       </c>
       <c r="I24" s="7">
-        <v>790930</v>
+        <v>2311121</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2056,10 +2056,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>1186</v>
+        <v>5038</v>
       </c>
       <c r="N24" s="7">
-        <v>914485</v>
+        <v>3847832</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75380D9-E9A4-4084-B22E-08A16A31C2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E86CA4-6CFC-428C-A4D7-E1549CFE1675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74D9F8AD-F943-477B-809D-E7570D2B6881}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{99C027A3-0C93-4844-9270-798321F41635}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
@@ -65,403 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F1C7C-76D6-4885-AC32-47B08308F910}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0F01FA-6ACD-4C89-A19E-895DCF74EAD3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>91060</v>
+        <v>101021</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1069,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>73178</v>
+        <v>69428</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>164238</v>
+        <v>170450</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1105,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>185445</v>
+        <v>196140</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1120,7 @@
         <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>182054</v>
+        <v>155066</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1135,7 @@
         <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>367499</v>
+        <v>351206</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1156,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>276505</v>
+        <v>297161</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1171,7 @@
         <v>146</v>
       </c>
       <c r="I6" s="7">
-        <v>255232</v>
+        <v>224494</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1186,7 @@
         <v>264</v>
       </c>
       <c r="N6" s="7">
-        <v>531737</v>
+        <v>521656</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1209,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>67580</v>
+        <v>68137</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1224,7 @@
         <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>133900</v>
+        <v>124383</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1239,7 @@
         <v>177</v>
       </c>
       <c r="N7" s="7">
-        <v>201480</v>
+        <v>192521</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>11509</v>
+        <v>10701</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1275,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>46737</v>
+        <v>41421</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="7">
-        <v>58246</v>
+        <v>52122</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1311,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>79089</v>
+        <v>78838</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1326,7 @@
         <v>166</v>
       </c>
       <c r="I9" s="7">
-        <v>180637</v>
+        <v>165804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1341,7 @@
         <v>221</v>
       </c>
       <c r="N9" s="7">
-        <v>259726</v>
+        <v>244643</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1364,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>74835</v>
+        <v>71346</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1379,7 @@
         <v>243</v>
       </c>
       <c r="I10" s="7">
-        <v>170904</v>
+        <v>159251</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1394,7 @@
         <v>312</v>
       </c>
       <c r="N10" s="7">
-        <v>245739</v>
+        <v>230597</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5566</v>
+        <v>5729</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1430,7 @@
         <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>35374</v>
+        <v>31875</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1445,7 @@
         <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>40940</v>
+        <v>37604</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1466,7 @@
         <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>80401</v>
+        <v>77075</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1481,7 @@
         <v>299</v>
       </c>
       <c r="I12" s="7">
-        <v>206278</v>
+        <v>191126</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1496,7 @@
         <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>286679</v>
+        <v>268201</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1519,7 @@
         <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>131952</v>
+        <v>126064</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,7 +1534,7 @@
         <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>206622</v>
+        <v>192158</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1492,7 +1549,7 @@
         <v>458</v>
       </c>
       <c r="N13" s="7">
-        <v>338574</v>
+        <v>318223</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1513,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>11300</v>
+        <v>10822</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1528,7 +1585,7 @@
         <v>113</v>
       </c>
       <c r="I14" s="7">
-        <v>79853</v>
+        <v>72297</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1543,7 +1600,7 @@
         <v>123</v>
       </c>
       <c r="N14" s="7">
-        <v>91152</v>
+        <v>83118</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1564,7 +1621,7 @@
         <v>141</v>
       </c>
       <c r="D15" s="7">
-        <v>143252</v>
+        <v>136886</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1636,7 @@
         <v>440</v>
       </c>
       <c r="I15" s="7">
-        <v>286475</v>
+        <v>264455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1651,7 @@
         <v>581</v>
       </c>
       <c r="N15" s="7">
-        <v>429726</v>
+        <v>401341</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1674,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>275369</v>
+        <v>256994</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1632,31 +1689,31 @@
         <v>518</v>
       </c>
       <c r="I16" s="7">
-        <v>308320</v>
+        <v>283515</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>818</v>
       </c>
       <c r="N16" s="7">
-        <v>583688</v>
+        <v>540509</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,46 +1725,46 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>4625</v>
+        <v>4586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>68518</v>
+        <v>61808</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>73144</v>
+        <v>66394</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1776,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>279994</v>
+        <v>261580</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1791,7 @@
         <v>626</v>
       </c>
       <c r="I18" s="7">
-        <v>376838</v>
+        <v>345323</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1806,7 @@
         <v>932</v>
       </c>
       <c r="N18" s="7">
-        <v>656832</v>
+        <v>606903</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1763,55 +1820,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>992</v>
+        <v>538</v>
       </c>
       <c r="D19" s="7">
-        <v>673548</v>
+        <v>348279</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>736</v>
+      </c>
+      <c r="I19" s="7">
+        <v>563263</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>1485</v>
-      </c>
-      <c r="I19" s="7">
-        <v>896667</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1274</v>
+      </c>
+      <c r="N19" s="7">
+        <v>911543</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>2477</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1570214</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,28 +1877,28 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>3922</v>
+        <v>2467</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7">
+        <v>27239</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>183</v>
-      </c>
-      <c r="I20" s="7">
-        <v>108995</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>119</v>
@@ -1850,10 +1907,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="N20" s="7">
-        <v>112918</v>
+        <v>29706</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -1871,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>998</v>
+        <v>542</v>
       </c>
       <c r="D21" s="7">
-        <v>677470</v>
+        <v>350746</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1668</v>
+        <v>790</v>
       </c>
       <c r="I21" s="7">
-        <v>1005662</v>
+        <v>590502</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2666</v>
+        <v>1332</v>
       </c>
       <c r="N21" s="7">
-        <v>1683132</v>
+        <v>941249</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,55 +1975,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1582</v>
+        <v>454</v>
       </c>
       <c r="D22" s="7">
-        <v>1314344</v>
+        <v>280027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>2749</v>
+        <v>749</v>
       </c>
       <c r="I22" s="7">
-        <v>1789590</v>
+        <v>354816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>4331</v>
+        <v>1203</v>
       </c>
       <c r="N22" s="7">
-        <v>3103934</v>
+        <v>634843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>222367</v>
+        <v>1134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>596</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>521531</v>
+        <v>69460</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>707</v>
+        <v>131</v>
       </c>
       <c r="N23" s="7">
-        <v>743898</v>
+        <v>70594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281161</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424276</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705437</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1582</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1251869</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2749</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1746814</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4331</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2998684</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>111</v>
+      </c>
+      <c r="D26" s="7">
+        <v>231579</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>596</v>
+      </c>
+      <c r="I26" s="7">
+        <v>459166</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>707</v>
+      </c>
+      <c r="N26" s="7">
+        <v>690744</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1693</v>
       </c>
-      <c r="D24" s="7">
-        <v>1536711</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1483448</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3345</v>
       </c>
-      <c r="I24" s="7">
-        <v>2311121</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2205980</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5038</v>
       </c>
-      <c r="N24" s="7">
-        <v>3847832</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>3689428</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
